--- a/Koh Lanta/Koh Lanta 16.xlsx
+++ b/Koh Lanta/Koh Lanta 16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adecastro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\yukifanclub\Koh Lanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="4" sheetId="8" r:id="rId9"/>
     <sheet name="5" sheetId="10" r:id="rId10"/>
     <sheet name="6" sheetId="11" r:id="rId11"/>
+    <sheet name="7" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="133">
   <si>
     <t>Legende :</t>
   </si>
@@ -158,9 +159,6 @@
   </si>
   <si>
     <t>Candice (1)</t>
-  </si>
-  <si>
-    <t>Jérome (1)</t>
   </si>
   <si>
     <t>Beryl (1)</t>
@@ -436,12 +434,89 @@
   <si>
     <t>Qui l'eut cru :(</t>
   </si>
+  <si>
+    <t>cochon pendu, celui qui tient le plus longtemps fait gagner son équipe.</t>
+  </si>
+  <si>
+    <t>Julie et Candice c'était des statues wtf…</t>
+  </si>
+  <si>
+    <t>REUNIFICATION. Bruno renverse la salade, cet imbecile</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Benoît (7) - </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jérome </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Les jaunes bouffent leur repas super vite pour rien laisser aux rouges</t>
+  </si>
+  <si>
+    <t>Jerôme ambassadeur Jaune, Julie tiré au sort chez les Rouges. Jérôme embobine Julie comme jama, mais se fait POUWNER LA FACE.</t>
+  </si>
+  <si>
+    <t>Ambassadeurs :</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Jérôme</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Ambassadeurs</t>
+  </si>
+  <si>
+    <t>Freddy</t>
+  </si>
+  <si>
+    <t>Benoît</t>
+  </si>
+  <si>
+    <t>les statues a maintenir sur la table en tenant le fil. Vainqueur Bruno T_T Yannick passe tout proche</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Ludivine</t>
+  </si>
+  <si>
+    <t>Lau qui s'en va :/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,8 +582,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,8 +610,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -696,11 +785,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -781,6 +883,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,7 +1301,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19764375" cy="1289685"/>
+          <a:ext cx="19707225" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -1581,7 +1691,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19861742" cy="1313392"/>
+          <a:ext cx="19792950" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -2002,6 +2112,450 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19840575" cy="1343025"/>
+          <a:chOff x="38100" y="1514475"/>
+          <a:chExt cx="19707225" cy="1343025"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1781175" y="1514475"/>
+            <a:ext cx="15830550" cy="1343025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="70000">
+                <a:schemeClr val="bg1"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="1"/>
+            <a:tileRect/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="Picture 3" descr="http://cdn1-public.ladmedia.fr/var/public/storage/images/dossiers/musique-cine-series/news/koh-lanta-l-ile-au-tresor-decouvrez-toutes-les-nouveautes-de-la-nouvelle-saison-1064170/16004686-1-fre-FR/Koh-Lanta-l-ile-au-Tresor-Decouvrez-toutes-les-nouveautes-de-la-nouvelle-saison_portrait_w674.jpg"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="38100" y="1514476"/>
+            <a:ext cx="1809749" cy="1342544"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Straight Connector 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="38100" y="2667000"/>
+            <a:ext cx="19707225" cy="28575"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2"/>
+                </a:gs>
+                <a:gs pos="69000">
+                  <a:schemeClr val="bg1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="0" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>569594</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Oval 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="1733550"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560069</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="2676525"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>569594</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Oval 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="4648200"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>569594</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="8143875"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>569594</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Oval 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="5410200"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2025,7 +2579,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="21177885" cy="1289685"/>
+          <a:ext cx="21288375" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -2618,7 +3172,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="466725" y="180975"/>
-          <a:ext cx="11000958" cy="6705600"/>
+          <a:ext cx="10726638" cy="6991350"/>
           <a:chOff x="561975" y="885825"/>
           <a:chExt cx="10726638" cy="6972300"/>
         </a:xfrm>
@@ -4972,6 +5526,222 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Multiply 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="1819275"/>
+          <a:ext cx="1485900" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1411540" cy="309252"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="TextBox 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="3419475"/>
+          <a:ext cx="1411540" cy="309252"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:latin typeface="Colonna MT" panose="04020805060202030203" pitchFamily="82" charset="0"/>
+            </a:rPr>
+            <a:t>Magnétoscope</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Multiply 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="3514725"/>
+          <a:ext cx="1485900" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Multiply 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14382751" y="2838449"/>
+          <a:ext cx="190500" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7074,23 +7844,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7126,23 +7879,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7301,15 +8037,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.109375" style="3"/>
-    <col min="5" max="6" width="16.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="6" width="16.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:19" ht="21" x14ac:dyDescent="0.35">
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
@@ -7327,12 +8063,12 @@
       <c r="R2" s="32"/>
       <c r="S2" s="32"/>
     </row>
-    <row r="11" spans="3:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" ht="24.6" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" ht="24.75" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
     </row>
   </sheetData>
@@ -7353,53 +8089,53 @@
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="E12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="E13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="22.2" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="21.75" x14ac:dyDescent="0.4">
       <c r="E14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7411,7 +8147,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
@@ -7422,11 +8158,11 @@
         <v>-1</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
         <v>14</v>
       </c>
@@ -7437,11 +8173,11 @@
         <v>1</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="12" t="s">
         <v>15</v>
       </c>
@@ -7452,11 +8188,11 @@
         <v>-1</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="14" t="s">
         <v>23</v>
       </c>
@@ -7467,33 +8203,33 @@
         <v>1</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
@@ -7506,7 +8242,7 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E30" s="8" t="s">
         <v>13</v>
       </c>
@@ -7519,7 +8255,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31" s="12" t="s">
         <v>14</v>
       </c>
@@ -7530,11 +8266,11 @@
         <v>1</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E32" s="12" t="s">
         <v>15</v>
       </c>
@@ -7547,7 +8283,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="14" t="s">
         <v>23</v>
       </c>
@@ -7556,13 +8292,13 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
@@ -7575,22 +8311,22 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
@@ -7602,22 +8338,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E42" s="12" t="s">
         <v>14</v>
       </c>
@@ -7630,7 +8366,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="40"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E43" s="12" t="s">
         <v>15</v>
       </c>
@@ -7643,7 +8379,7 @@
       <c r="H43" s="39"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="14" t="s">
         <v>23</v>
       </c>
@@ -7653,19 +8389,19 @@
       <c r="H44" s="39"/>
       <c r="I44" s="40"/>
     </row>
-    <row r="45" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="15">
         <v>-1</v>
@@ -7673,7 +8409,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H41:I46"/>
@@ -7805,61 +8541,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:J59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="E12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="E13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="E17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
@@ -7871,7 +8607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E20" s="8" t="s">
         <v>13</v>
       </c>
@@ -7882,11 +8618,11 @@
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="12" t="s">
         <v>14</v>
       </c>
@@ -7897,11 +8633,11 @@
         <v>-1</v>
       </c>
       <c r="H21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="12" t="s">
         <v>15</v>
       </c>
@@ -7912,11 +8648,11 @@
         <v>-1</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="14" t="s">
         <v>23</v>
       </c>
@@ -7927,39 +8663,39 @@
         <v>-1</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="E29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
@@ -7972,7 +8708,7 @@
       </c>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E32" s="8" t="s">
         <v>13</v>
       </c>
@@ -7985,7 +8721,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E33" s="12" t="s">
         <v>14</v>
       </c>
@@ -7998,7 +8734,7 @@
       <c r="H33" s="7"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E34" s="12" t="s">
         <v>15</v>
       </c>
@@ -8011,7 +8747,7 @@
       <c r="H34" s="7"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
@@ -8020,13 +8756,13 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="14" t="s">
         <v>23</v>
       </c>
@@ -8039,22 +8775,22 @@
       <c r="H37" s="16"/>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
@@ -8067,12 +8803,12 @@
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E43" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" s="9">
         <v>-1</v>
@@ -8080,12 +8816,12 @@
       <c r="H43" s="10"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E44" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G44" s="6">
         <v>-1</v>
@@ -8093,12 +8829,12 @@
       <c r="H44" s="7"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E45" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G45" s="6">
         <v>-1</v>
@@ -8106,7 +8842,7 @@
       <c r="H45" s="7"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="14" t="s">
         <v>23</v>
       </c>
@@ -8115,18 +8851,18 @@
       </c>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G48" s="15">
         <v>-1</v>
@@ -8134,18 +8870,18 @@
       <c r="H48" s="16"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="J49" s="7"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
@@ -8157,27 +8893,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="9">
         <v>-1</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I53" s="38"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E54" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="6">
         <v>-1</v>
@@ -8185,12 +8921,12 @@
       <c r="H54" s="39"/>
       <c r="I54" s="40"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E55" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="6">
         <v>-1</v>
@@ -8198,7 +8934,7 @@
       <c r="H55" s="39"/>
       <c r="I55" s="40"/>
     </row>
-    <row r="56" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="14" t="s">
         <v>23</v>
       </c>
@@ -8208,19 +8944,19 @@
       <c r="H56" s="39"/>
       <c r="I56" s="40"/>
     </row>
-    <row r="57" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="40"/>
     </row>
-    <row r="58" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G58" s="15">
         <v>1</v>
@@ -8228,7 +8964,7 @@
       <c r="H58" s="41"/>
       <c r="I58" s="42"/>
     </row>
-    <row r="59" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H53:I58"/>
@@ -8401,36 +9137,515 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B9:J54"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="E12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="44"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="7"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="9">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="40"/>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="40"/>
+    </row>
+    <row r="50" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40"/>
+    </row>
+    <row r="51" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="40"/>
+    </row>
+    <row r="52" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="41"/>
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" spans="5:9" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H47:I52"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G20:G25">
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="iconSet" priority="18">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G40">
+    <cfRule type="iconSet" priority="17">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G51">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41">
+    <cfRule type="iconSet" priority="14">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:G84 G18:G51">
+    <cfRule type="iconSet" priority="13">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G53:G74 G18:G51">
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="iconSet" priority="11">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G249">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G54">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:L34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J22" sqref="J22:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="2" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
@@ -8446,7 +9661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
@@ -8454,8 +9669,8 @@
         <v>38</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>51</v>
+      <c r="H13" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="I13" s="9">
         <v>-1</v>
@@ -8463,7 +9678,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" s="12" t="s">
         <v>14</v>
       </c>
@@ -8472,18 +9687,18 @@
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="7"/>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
@@ -8493,23 +9708,23 @@
       <c r="J15" s="7"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16">
         <v>-1</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" spans="2:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="12"/>
       <c r="F17" s="6"/>
       <c r="G17">
@@ -8522,7 +9737,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="14" t="s">
         <v>23</v>
       </c>
@@ -8537,32 +9752,32 @@
       <c r="J18" s="16"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5"/>
       <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="E25" s="8" t="s">
         <v>13</v>
@@ -8574,7 +9789,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="E26" s="12" t="s">
         <v>14</v>
@@ -8585,7 +9800,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="E27" s="12" t="s">
         <v>15</v>
@@ -8596,7 +9811,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="5"/>
       <c r="E28" s="14" t="s">
         <v>23</v>
@@ -8608,22 +9823,22 @@
       <c r="H28" s="16"/>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="5"/>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -8772,7 +9987,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8784,15 +10000,15 @@
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8801,21 +10017,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="V7:Z18"/>
+  <dimension ref="V7:Z19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="9.109375" style="5"/>
-    <col min="24" max="24" width="2.88671875" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="23" width="9.140625" style="5"/>
+    <col min="24" max="24" width="2.85546875" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="7" spans="22:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="22:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V8" s="21" t="s">
         <v>0</v>
       </c>
@@ -8824,14 +10040,14 @@
       <c r="Y8" s="22"/>
       <c r="Z8" s="23"/>
     </row>
-    <row r="9" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V9" s="24"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="25"/>
     </row>
-    <row r="10" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V10" s="26" t="s">
         <v>5</v>
       </c>
@@ -8840,7 +10056,7 @@
       <c r="Y10" s="20"/>
       <c r="Z10" s="25"/>
     </row>
-    <row r="11" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V11" s="24" t="s">
         <v>3</v>
       </c>
@@ -8849,7 +10065,7 @@
       <c r="Y11" s="20"/>
       <c r="Z11" s="25"/>
     </row>
-    <row r="12" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V12" s="24" t="s">
         <v>4</v>
       </c>
@@ -8858,14 +10074,14 @@
       <c r="Y12" s="20"/>
       <c r="Z12" s="25"/>
     </row>
-    <row r="13" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V13" s="24"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="25"/>
     </row>
-    <row r="14" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V14" s="26" t="s">
         <v>2</v>
       </c>
@@ -8874,7 +10090,7 @@
       <c r="Y14" s="20"/>
       <c r="Z14" s="25"/>
     </row>
-    <row r="15" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V15" s="24" t="s">
         <v>6</v>
       </c>
@@ -8883,32 +10099,41 @@
       <c r="Y15" s="20"/>
       <c r="Z15" s="25"/>
     </row>
-    <row r="16" spans="22:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="22:26" x14ac:dyDescent="0.25">
       <c r="V16" s="24" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="25"/>
     </row>
-    <row r="17" spans="22:26" x14ac:dyDescent="0.3">
-      <c r="V17" s="24"/>
+    <row r="17" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V17" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="25"/>
     </row>
-    <row r="18" spans="22:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V18" s="27" t="s">
+    <row r="18" spans="22:26" x14ac:dyDescent="0.25">
+      <c r="V18" s="24"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" spans="22:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29" t="s">
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z18" s="30"/>
+      <c r="Z19" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8924,7 +10149,7 @@
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8939,17 +10164,17 @@
       <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8957,12 +10182,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
@@ -8970,10 +10195,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
@@ -8985,7 +10210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
@@ -9000,7 +10225,7 @@
       </c>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
@@ -9013,7 +10238,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="14" t="s">
         <v>15</v>
       </c>
@@ -9026,18 +10251,18 @@
       <c r="H19" s="16"/>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
@@ -9045,10 +10270,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
@@ -9061,7 +10286,7 @@
       </c>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E27" s="8" t="s">
         <v>13</v>
       </c>
@@ -9076,7 +10301,7 @@
       </c>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28" s="12" t="s">
         <v>14</v>
       </c>
@@ -9091,7 +10316,7 @@
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="12" t="s">
         <v>15</v>
       </c>
@@ -9106,19 +10331,19 @@
       </c>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="14" t="s">
         <v>23</v>
       </c>
@@ -9133,11 +10358,11 @@
       </c>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
@@ -9145,10 +10370,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
@@ -9160,7 +10385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E38" s="8" t="s">
         <v>13</v>
       </c>
@@ -9173,7 +10398,7 @@
       <c r="H38" s="33"/>
       <c r="I38" s="34"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E39" s="12" t="s">
         <v>14</v>
       </c>
@@ -9186,7 +10411,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E40" s="12" t="s">
         <v>15</v>
       </c>
@@ -9199,17 +10424,17 @@
       <c r="H40" s="35"/>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E43" s="14" t="s">
         <v>23</v>
       </c>
@@ -9222,7 +10447,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H38:I40"/>
@@ -9358,33 +10583,33 @@
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
@@ -9396,7 +10621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
@@ -9409,7 +10634,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
@@ -9422,7 +10647,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="12" t="s">
         <v>15</v>
       </c>
@@ -9435,7 +10660,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="14" t="s">
         <v>23</v>
       </c>
@@ -9448,26 +10673,26 @@
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>16</v>
       </c>
@@ -9480,7 +10705,7 @@
       </c>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E28" s="8" t="s">
         <v>13</v>
       </c>
@@ -9493,7 +10718,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="12" t="s">
         <v>14</v>
       </c>
@@ -9506,7 +10731,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="12" t="s">
         <v>15</v>
       </c>
@@ -9519,7 +10744,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E31" s="14" t="s">
         <v>23</v>
       </c>
@@ -9528,13 +10753,13 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="14" t="s">
         <v>23</v>
       </c>
@@ -9547,22 +10772,22 @@
       <c r="H33" s="16"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
@@ -9574,27 +10799,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="9">
         <v>-1</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="38"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E40" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="6">
         <v>-1</v>
@@ -9602,12 +10827,12 @@
       <c r="H40" s="39"/>
       <c r="I40" s="40"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E41" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="6">
         <v>-1</v>
@@ -9615,7 +10840,7 @@
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
     </row>
-    <row r="42" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="14" t="s">
         <v>23</v>
       </c>
@@ -9625,19 +10850,19 @@
       <c r="H42" s="39"/>
       <c r="I42" s="40"/>
     </row>
-    <row r="43" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="15">
         <v>-1</v>
@@ -9645,7 +10870,7 @@
       <c r="H44" s="41"/>
       <c r="I44" s="42"/>
     </row>
-    <row r="45" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H39:I44"/>
@@ -9781,51 +11006,51 @@
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
@@ -9837,7 +11062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E19" s="8" t="s">
         <v>13</v>
       </c>
@@ -9850,7 +11075,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
         <v>14</v>
       </c>
@@ -9863,7 +11088,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="12" t="s">
         <v>15</v>
       </c>
@@ -9874,11 +11099,11 @@
         <v>1</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="14" t="s">
         <v>23</v>
       </c>
@@ -9891,29 +11116,29 @@
       <c r="H22" s="16"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
@@ -9926,7 +11151,7 @@
       </c>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E30" s="8" t="s">
         <v>13</v>
       </c>
@@ -9939,7 +11164,7 @@
       <c r="H30" s="10"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31" s="12" t="s">
         <v>14</v>
       </c>
@@ -9952,7 +11177,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E32" s="12" t="s">
         <v>15</v>
       </c>
@@ -9965,7 +11190,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="14" t="s">
         <v>23</v>
       </c>
@@ -9974,13 +11199,13 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E35" s="14" t="s">
         <v>23</v>
       </c>
@@ -9993,19 +11218,19 @@
       <c r="H35" s="16"/>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
@@ -10017,7 +11242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E41" s="8" t="s">
         <v>13</v>
       </c>
@@ -10028,11 +11253,11 @@
         <v>1</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I41" s="38"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E42" s="12" t="s">
         <v>14</v>
       </c>
@@ -10045,7 +11270,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="40"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E43" s="12" t="s">
         <v>15</v>
       </c>
@@ -10058,7 +11283,7 @@
       <c r="H43" s="39"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="14" t="s">
         <v>23</v>
       </c>
@@ -10068,19 +11293,19 @@
       <c r="H44" s="39"/>
       <c r="I44" s="40"/>
     </row>
-    <row r="45" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="40"/>
     </row>
-    <row r="46" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="15">
         <v>-1</v>
@@ -10088,7 +11313,7 @@
       <c r="H46" s="41"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H41:I46"/>
@@ -10224,42 +11449,42 @@
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
@@ -10271,7 +11496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
@@ -10282,11 +11507,11 @@
         <v>-1</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="12" t="s">
         <v>14</v>
       </c>
@@ -10297,11 +11522,11 @@
         <v>-1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="12" t="s">
         <v>15</v>
       </c>
@@ -10312,11 +11537,11 @@
         <v>-1</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="14" t="s">
         <v>23</v>
       </c>
@@ -10327,33 +11552,33 @@
         <v>1</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" hidden="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
@@ -10366,7 +11591,7 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E29" s="8" t="s">
         <v>13</v>
       </c>
@@ -10379,7 +11604,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="12" t="s">
         <v>14</v>
       </c>
@@ -10392,7 +11617,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31" s="12" t="s">
         <v>15</v>
       </c>
@@ -10405,7 +11630,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="14" t="s">
         <v>23</v>
       </c>
@@ -10414,13 +11639,13 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E34" s="14" t="s">
         <v>23</v>
       </c>
@@ -10433,22 +11658,22 @@
       <c r="H34" s="16"/>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>16</v>
       </c>
@@ -10460,27 +11685,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E40" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="9">
         <v>-1</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I40" s="38"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="6">
         <v>1</v>
@@ -10488,12 +11713,12 @@
       <c r="H41" s="39"/>
       <c r="I41" s="40"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E42" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="6">
         <v>-1</v>
@@ -10501,7 +11726,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="40"/>
     </row>
-    <row r="43" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="14" t="s">
         <v>23</v>
       </c>
@@ -10511,19 +11736,19 @@
       <c r="H43" s="39"/>
       <c r="I43" s="40"/>
     </row>
-    <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="40"/>
     </row>
-    <row r="45" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="15">
         <v>1</v>
@@ -10531,7 +11756,7 @@
       <c r="H45" s="41"/>
       <c r="I45" s="42"/>
     </row>
-    <row r="46" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H40:I45"/>

--- a/Koh Lanta/Koh Lanta 16.xlsx
+++ b/Koh Lanta/Koh Lanta 16.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\yukifanclub\Koh Lanta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documents\Koh Lanta\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
@@ -515,7 +515,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -851,6 +851,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -883,14 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,7 +1691,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19792950" cy="1343025"/>
+          <a:ext cx="22250400" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -2135,7 +2135,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19840575" cy="1343025"/>
+          <a:ext cx="22317075" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -2579,7 +2579,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="21288375" cy="1343025"/>
+          <a:ext cx="24003000" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -3172,7 +3172,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="466725" y="180975"/>
-          <a:ext cx="10726638" cy="6991350"/>
+          <a:ext cx="12269688" cy="6991350"/>
           <a:chOff x="561975" y="885825"/>
           <a:chExt cx="10726638" cy="6972300"/>
         </a:xfrm>
@@ -5742,6 +5742,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Multiply 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8181975" y="3495675"/>
+          <a:ext cx="1657350" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5933,7 +5987,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19707225" cy="1289685"/>
+          <a:ext cx="22145625" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -6231,7 +6285,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19707225" cy="1343025"/>
+          <a:ext cx="22164675" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -6621,7 +6675,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19707225" cy="1343025"/>
+          <a:ext cx="22164675" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -7011,7 +7065,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="19707225" cy="1343025"/>
+          <a:ext cx="22164675" cy="1343025"/>
           <a:chOff x="38100" y="1514475"/>
           <a:chExt cx="19707225" cy="1343025"/>
         </a:xfrm>
@@ -7844,6 +7898,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7879,6 +7950,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8037,31 +8125,31 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="3"/>
-    <col min="5" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="4" width="9.125" style="3"/>
+    <col min="5" max="6" width="16.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="11" spans="3:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="18" t="s">
@@ -8092,9 +8180,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
@@ -8348,10 +8436,10 @@
       <c r="G41" s="9">
         <v>1</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="38"/>
+      <c r="I41" s="42"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E42" s="12" t="s">
@@ -8363,8 +8451,8 @@
       <c r="G42" s="6">
         <v>1</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E43" s="12" t="s">
@@ -8376,8 +8464,8 @@
       <c r="G43" s="6">
         <v>1</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="14" t="s">
@@ -8386,15 +8474,15 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="14" t="s">
@@ -8406,8 +8494,8 @@
       <c r="G46" s="15">
         <v>-1</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -8548,8 +8636,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8903,10 +8991,10 @@
       <c r="G53" s="9">
         <v>-1</v>
       </c>
-      <c r="H53" s="37" t="s">
+      <c r="H53" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="38"/>
+      <c r="I53" s="42"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E54" s="12" t="s">
@@ -8918,8 +9006,8 @@
       <c r="G54" s="6">
         <v>-1</v>
       </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="40"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="44"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E55" s="12" t="s">
@@ -8931,8 +9019,8 @@
       <c r="G55" s="6">
         <v>-1</v>
       </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="40"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="44"/>
     </row>
     <row r="56" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E56" s="14" t="s">
@@ -8941,15 +9029,15 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="40"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="44"/>
     </row>
     <row r="57" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="40"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="44"/>
     </row>
     <row r="58" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E58" s="14" t="s">
@@ -8961,8 +9049,8 @@
       <c r="G58" s="15">
         <v>1</v>
       </c>
-      <c r="H58" s="41"/>
-      <c r="I58" s="42"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="46"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -9141,16 +9229,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B9:J54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.375" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9283,14 +9371,14 @@
       <c r="E29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="33"/>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E30" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
@@ -9300,7 +9388,7 @@
       <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="35" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9424,8 +9512,8 @@
       <c r="G47" s="9">
         <v>-1</v>
       </c>
-      <c r="H47" s="37"/>
-      <c r="I47" s="38"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="42"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E48" s="12" t="s">
@@ -9437,8 +9525,8 @@
       <c r="G48" s="6">
         <v>-1</v>
       </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="40"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="44"/>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49" s="12" t="s">
@@ -9450,8 +9538,8 @@
       <c r="G49" s="6">
         <v>-1</v>
       </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="40"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="44"/>
     </row>
     <row r="50" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
@@ -9460,15 +9548,15 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="40"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="44"/>
     </row>
     <row r="51" spans="5:9" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="40"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="44"/>
     </row>
     <row r="52" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E52" s="14" t="s">
@@ -9480,8 +9568,8 @@
       <c r="G52" s="15">
         <v>-1</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="46"/>
     </row>
     <row r="53" spans="5:9" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G53">
@@ -9628,9 +9716,9 @@
   <cols>
     <col min="4" max="4" width="2" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.875" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="2.875" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9669,7 +9757,7 @@
         <v>38</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="32" t="s">
         <v>50</v>
       </c>
       <c r="I13" s="9">
@@ -10019,15 +10107,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V7:Z19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="9.140625" style="5"/>
-    <col min="24" max="24" width="2.85546875" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="23" width="9.125" style="5"/>
+    <col min="24" max="24" width="2.875" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
     <row r="7" spans="22:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -10167,9 +10255,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
@@ -10395,8 +10483,8 @@
       <c r="G38" s="9">
         <v>1</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E39" s="12" t="s">
@@ -10408,8 +10496,8 @@
       <c r="G39" s="6">
         <v>-1</v>
       </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E40" s="12" t="s">
@@ -10421,8 +10509,8 @@
       <c r="G40" s="6">
         <v>-1</v>
       </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40"/>
     </row>
     <row r="41" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G41">
@@ -10586,9 +10674,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
@@ -10809,10 +10897,10 @@
       <c r="G39" s="9">
         <v>-1</v>
       </c>
-      <c r="H39" s="37" t="s">
+      <c r="H39" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="38"/>
+      <c r="I39" s="42"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E40" s="12" t="s">
@@ -10824,8 +10912,8 @@
       <c r="G40" s="6">
         <v>-1</v>
       </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="40"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E41" s="12" t="s">
@@ -10837,8 +10925,8 @@
       <c r="G41" s="6">
         <v>-1</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="14" t="s">
@@ -10847,15 +10935,15 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
@@ -10867,8 +10955,8 @@
       <c r="G44" s="15">
         <v>-1</v>
       </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="42"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="46"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11009,9 +11097,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
@@ -11252,10 +11340,10 @@
       <c r="G41" s="9">
         <v>1</v>
       </c>
-      <c r="H41" s="37" t="s">
+      <c r="H41" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="38"/>
+      <c r="I41" s="42"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E42" s="12" t="s">
@@ -11267,8 +11355,8 @@
       <c r="G42" s="6">
         <v>1</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E43" s="12" t="s">
@@ -11280,8 +11368,8 @@
       <c r="G43" s="6">
         <v>1</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E44" s="14" t="s">
@@ -11290,15 +11378,15 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="44"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E46" s="14" t="s">
@@ -11310,8 +11398,8 @@
       <c r="G46" s="15">
         <v>-1</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="46"/>
     </row>
     <row r="47" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -11452,9 +11540,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25"/>
@@ -11695,10 +11783,10 @@
       <c r="G40" s="9">
         <v>-1</v>
       </c>
-      <c r="H40" s="37" t="s">
+      <c r="H40" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="I40" s="38"/>
+      <c r="I40" s="42"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E41" s="12" t="s">
@@ -11710,8 +11798,8 @@
       <c r="G41" s="6">
         <v>1</v>
       </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="40"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E42" s="12" t="s">
@@ -11723,8 +11811,8 @@
       <c r="G42" s="6">
         <v>-1</v>
       </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="40"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="44"/>
     </row>
     <row r="43" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E43" s="14" t="s">
@@ -11733,15 +11821,15 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44"/>
     </row>
     <row r="44" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="40"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44"/>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
@@ -11753,8 +11841,8 @@
       <c r="G45" s="15">
         <v>1</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="46"/>
     </row>
     <row r="46" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
